--- a/same_number_of_collumns/zipf_missing_predicate_no_missing/raw_results/db_10zipf110_missing_measure36.xlsx
+++ b/same_number_of_collumns/zipf_missing_predicate_no_missing/raw_results/db_10zipf110_missing_measure36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>diag_1</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>change</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,10 +480,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1.414213562373095</v>
@@ -494,10 +497,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1.414213562373095</v>
@@ -511,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1.414213562373095</v>
@@ -528,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1.414213562373095</v>
@@ -545,10 +548,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1.414213562373095</v>
@@ -562,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1.414213562373095</v>
@@ -579,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1.414213562373095</v>
@@ -596,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1.414213562373095</v>
@@ -613,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1.414213562373095</v>
@@ -630,10 +633,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1.414213562373095</v>
@@ -647,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1.414213562373095</v>
@@ -664,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1.414213562373095</v>
@@ -681,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>1.414213562373095</v>
@@ -698,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1.414213562373095</v>
@@ -715,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1.414213562373095</v>
@@ -732,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1.414213562373095</v>
@@ -749,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1.414213562373095</v>
@@ -766,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1.414213562373095</v>
@@ -783,10 +786,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>1.414213562373095</v>
@@ -800,10 +803,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>1.414213562373095</v>
@@ -817,10 +820,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>1.414213562373095</v>
@@ -834,10 +837,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>1.414213562373095</v>
@@ -851,10 +854,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1.414213562373095</v>
@@ -868,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1.414213562373095</v>
@@ -885,10 +888,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>1.414213562373095</v>
@@ -902,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>1.414213562373095</v>
@@ -919,10 +922,10 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>1.414213562373095</v>
@@ -936,10 +939,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>1.414213562373095</v>
@@ -953,10 +956,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>1.414213562373095</v>
@@ -970,10 +973,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>1.414213562373095</v>
@@ -987,10 +990,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>1.414213562373095</v>
@@ -1004,10 +1007,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>1.414213562373095</v>
@@ -1021,10 +1024,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0.8093743562995035</v>
@@ -1038,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0.8021981852112422</v>
@@ -1055,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0.6940345670909434</v>
@@ -1072,10 +1075,10 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0.691261150784415</v>
@@ -1089,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0.6372786623393298</v>
@@ -1106,10 +1109,10 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0.6267941332248042</v>
@@ -1123,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0.6037914697216047</v>
@@ -1140,10 +1143,10 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0.5635773136718069</v>
@@ -1157,10 +1160,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0.5630378666136667</v>
@@ -1174,10 +1177,10 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0.5547001962252291</v>
@@ -1191,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0.5468314489715647</v>
@@ -1205,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
       </c>
       <c r="E45">
-        <v>0.4880711008692505</v>
+        <v>0.5066301898750266</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1222,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>0.4787835971820055</v>
+        <v>0.4880711008692505</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1239,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47">
-        <v>0.4712414332508487</v>
+        <v>0.4787835971820055</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1256,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>0.4686292357617973</v>
+        <v>0.4725385505220618</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1273,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <v>0.4610112019472001</v>
+        <v>0.4712414332508487</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1293,13 +1296,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>0.4577978959460453</v>
+        <v>0.4686292357617973</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1307,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E51">
-        <v>0.4526319104885494</v>
+        <v>0.4610112019472001</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1324,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>0.4432445109256249</v>
+        <v>0.4577978959460453</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1344,13 +1347,13 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53">
-        <v>0.4309066795526431</v>
+        <v>0.4565767851504223</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1358,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>0.4137319368003005</v>
+        <v>0.4526319104885494</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1375,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E55">
-        <v>0.3917247450213849</v>
+        <v>0.4432445109256249</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1392,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
       </c>
       <c r="E56">
-        <v>0.3867777591240187</v>
+        <v>0.4319533471752466</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1409,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>0.3825427632223676</v>
+        <v>0.4309066795526431</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1426,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>0.3795253017072586</v>
+        <v>0.4190581774617468</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1443,7 +1446,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -1452,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="E59">
-        <v>0.3772544292360793</v>
+        <v>0.4137319368003005</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1460,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>0.3761119975227773</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1477,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <v>0.3737545796291638</v>
+        <v>0.3867777591240187</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1500,10 +1503,10 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>0.361296105435292</v>
+        <v>0.3825427632223676</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1511,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E63">
-        <v>0.3404848625387258</v>
+        <v>0.3795253017072586</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1528,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E64">
-        <v>0.3390978063533385</v>
+        <v>0.3772544292360793</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1545,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
       </c>
       <c r="E65">
-        <v>0.3341162900634181</v>
+        <v>0.3761119975227773</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1562,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66">
-        <v>0.3336404888757088</v>
+        <v>0.3737545796291638</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1585,10 +1588,10 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E67">
-        <v>0.3335458189665558</v>
+        <v>0.361296105435292</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1596,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
       </c>
       <c r="E68">
-        <v>0.3325999415843023</v>
+        <v>0.3404848625387258</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1616,13 +1619,13 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E69">
-        <v>0.3325662565995027</v>
+        <v>0.3390978063533385</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1633,13 +1636,13 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>0.3324709029310861</v>
+        <v>0.3341162900634181</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1650,13 +1653,13 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E71">
-        <v>0.3323543727368762</v>
+        <v>0.3336404888757088</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1667,13 +1670,13 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>0.3323339611393524</v>
+        <v>0.3335458189665558</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1681,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E73">
-        <v>0.3290661234582608</v>
+        <v>0.3325999415843023</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1701,13 +1704,13 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E74">
-        <v>0.3200616342030975</v>
+        <v>0.3325662565995027</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1715,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E75">
-        <v>0.3197326681836183</v>
+        <v>0.3324709029310861</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1735,13 +1738,13 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>0.3182173119147688</v>
+        <v>0.3323543727368762</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1749,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E77">
-        <v>0.31775655153597</v>
+        <v>0.3323339611393524</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1766,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E78">
-        <v>0.3154261020886063</v>
+        <v>0.3290661234582608</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1786,13 +1789,13 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>0.3147884731691579</v>
+        <v>0.3200616342030975</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1800,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80">
-        <v>0.3138632728063292</v>
+        <v>0.3197326681836183</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1820,13 +1823,13 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E81">
-        <v>0.305621558093148</v>
+        <v>0.3182173119147688</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1834,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
       </c>
       <c r="E82">
-        <v>0.3026309550371014</v>
+        <v>0.31775655153597</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1854,13 +1857,13 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
       </c>
       <c r="E83">
-        <v>0.3024146872638339</v>
+        <v>0.3162644577575215</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84">
-        <v>0.3023336298850799</v>
+        <v>0.3154261020886063</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1885,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E85">
-        <v>0.3021314575656022</v>
+        <v>0.3147884731691579</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1902,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>0.3019099833510986</v>
+        <v>0.3138632728063292</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,13 +1925,13 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87">
-        <v>0.3018927173932586</v>
+        <v>0.3107277331329326</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1936,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E88">
-        <v>0.3018673076104135</v>
+        <v>0.305621558093148</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1953,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E89">
-        <v>0.3016852195706095</v>
+        <v>0.3026309550371014</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1970,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E90">
-        <v>0.3015347145489908</v>
+        <v>0.3024146872638339</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1987,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E91">
-        <v>0.301128388528766</v>
+        <v>0.3023336298850799</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2004,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92">
-        <v>0.2943485323082899</v>
+        <v>0.3021314575656022</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2021,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E93">
-        <v>0.2941367604437882</v>
+        <v>0.3019099833510986</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2038,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E94">
-        <v>0.2939496626989925</v>
+        <v>0.3018927173932586</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2055,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E95">
-        <v>0.2881596101121183</v>
+        <v>0.3018673076104135</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2072,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E96">
-        <v>0.2833142152788863</v>
+        <v>0.3016852195706095</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2089,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E97">
-        <v>0.2832073061371709</v>
+        <v>0.3015347145489908</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2106,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E98">
-        <v>0.2830225918445333</v>
+        <v>0.301128388528766</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2123,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>0.2822273793441261</v>
+        <v>0.2943485323082899</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2140,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
       </c>
       <c r="E100">
-        <v>0.2777364316136205</v>
+        <v>0.2941367604437882</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2157,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E101">
-        <v>0.2776061839853026</v>
+        <v>0.2939496626989925</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2174,16 +2177,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
       </c>
       <c r="E102">
-        <v>0.2758406112984927</v>
+        <v>0.2881596101121183</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2200,7 +2203,7 @@
         <v>22</v>
       </c>
       <c r="E103">
-        <v>0.2709464563516637</v>
+        <v>0.2833142152788863</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2208,16 +2211,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E104">
-        <v>0.2703787078364592</v>
+        <v>0.2832073061371709</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2225,16 +2228,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E105">
-        <v>0.2691950020398758</v>
+        <v>0.2830225918445333</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2242,16 +2245,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E106">
-        <v>0.2686132273902377</v>
+        <v>0.2822273793441261</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2259,16 +2262,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E107">
-        <v>0.2665623802170652</v>
+        <v>0.2777364316136205</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2276,16 +2279,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E108">
-        <v>0.2646166074423991</v>
+        <v>0.2776061839853026</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2302,7 +2305,7 @@
         <v>23</v>
       </c>
       <c r="E109">
-        <v>0.2637164381980764</v>
+        <v>0.2758406112984927</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2310,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E110">
-        <v>0.2614713232316822</v>
+        <v>0.2709464563516637</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2327,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E111">
-        <v>0.2598137274360772</v>
+        <v>0.2703787078364592</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2353,7 +2356,7 @@
         <v>23</v>
       </c>
       <c r="E112">
-        <v>0.2581988897471611</v>
+        <v>0.2691950020398758</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2361,7 +2364,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
@@ -2370,7 +2373,7 @@
         <v>24</v>
       </c>
       <c r="E113">
-        <v>0.2573049703392691</v>
+        <v>0.2686132273902377</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2378,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E114">
-        <v>0.2571699852448712</v>
+        <v>0.2665623802170652</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2395,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E115">
-        <v>0.2568468899743147</v>
+        <v>0.2646166074423991</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2415,13 +2418,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
       </c>
       <c r="E116">
-        <v>0.2568083792869772</v>
+        <v>0.2637164381980764</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2432,13 +2435,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E117">
-        <v>0.2566475497229337</v>
+        <v>0.2614713232316822</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2446,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E118">
-        <v>0.2565727164567093</v>
+        <v>0.2598137274360772</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2463,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
       </c>
       <c r="E119">
-        <v>0.2554403544736112</v>
+        <v>0.2581988897471611</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2480,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E120">
-        <v>0.2543848619635513</v>
+        <v>0.2573049703392691</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2500,13 +2503,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E121">
-        <v>0.2527818452636643</v>
+        <v>0.2571699852448712</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2514,16 +2517,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E122">
-        <v>0.2527515783968136</v>
+        <v>0.2568468899743147</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2531,16 +2534,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E123">
-        <v>0.2514154528056993</v>
+        <v>0.2568083792869772</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2548,16 +2551,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E124">
-        <v>0.2505057066864659</v>
+        <v>0.2566475497229337</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2565,16 +2568,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E125">
-        <v>0.2311888316118858</v>
+        <v>0.2565727164567093</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2582,16 +2585,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E126">
-        <v>0.2311888316118858</v>
+        <v>0.2554403544736112</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2599,16 +2602,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E127">
-        <v>0.2282337053903239</v>
+        <v>0.2543848619635513</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2616,16 +2619,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E128">
-        <v>0.2267767292930759</v>
+        <v>0.2527818452636643</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2633,16 +2636,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E129">
-        <v>0.2236067977499791</v>
+        <v>0.2527515783968136</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2650,16 +2653,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E130">
-        <v>0.2224164882709476</v>
+        <v>0.2514154528056993</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2667,16 +2670,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E131">
-        <v>0.2219200847407814</v>
+        <v>0.2505057066864659</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2684,16 +2687,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E132">
-        <v>0.2195538555984841</v>
+        <v>0.2479803477567594</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2701,16 +2704,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E133">
-        <v>0.2182886641594746</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2721,13 +2724,13 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E134">
-        <v>0.2165032474240959</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2735,16 +2738,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E135">
-        <v>0.215179256387123</v>
+        <v>0.2282337053903239</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2752,16 +2755,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E136">
-        <v>0.2145567545930758</v>
+        <v>0.2267767292930759</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2772,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>24</v>
       </c>
       <c r="E137">
-        <v>0.2145554602398653</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2786,16 +2789,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
         <v>22</v>
       </c>
       <c r="E138">
-        <v>0.2143172197486504</v>
+        <v>0.2224164882709476</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2803,16 +2806,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E139">
-        <v>0.2143141551624518</v>
+        <v>0.2219200847407814</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2820,16 +2823,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E140">
-        <v>0.2139215565395615</v>
+        <v>0.2195538555984841</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2837,16 +2840,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E141">
-        <v>0.2136730543997327</v>
+        <v>0.2182886641594746</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2854,16 +2857,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E142">
-        <v>0.2135572395416963</v>
+        <v>0.217156464075415</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2871,16 +2874,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
         <v>24</v>
       </c>
       <c r="E143">
-        <v>0.2134050101007635</v>
+        <v>0.2165032474240959</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2888,16 +2891,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E144">
-        <v>0.2131285635557707</v>
+        <v>0.2165032474240959</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2908,13 +2911,13 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E145">
-        <v>0.2125259394093533</v>
+        <v>0.215179256387123</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2925,13 +2928,13 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E146">
-        <v>0.2123627363614878</v>
+        <v>0.2145567545930758</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2942,13 +2945,13 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E147">
-        <v>0.2119380650973227</v>
+        <v>0.2145554602398653</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2956,16 +2959,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E148">
-        <v>0.2111995196753924</v>
+        <v>0.2143172197486504</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2973,16 +2976,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E149">
-        <v>0.2102771812579088</v>
+        <v>0.2143141551624518</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2990,16 +2993,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E150">
-        <v>0.2060515567428585</v>
+        <v>0.2139215565395615</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3007,16 +3010,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E151">
-        <v>0.2043136482280989</v>
+        <v>0.2136730543997327</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3027,13 +3030,13 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
         <v>24</v>
       </c>
       <c r="E152">
-        <v>0.2000874760376548</v>
+        <v>0.2135572395416963</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3044,13 +3047,13 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E153">
-        <v>0.2000790204926368</v>
+        <v>0.2134050101007635</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3058,16 +3061,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E154">
-        <v>0.1996143652945526</v>
+        <v>0.2131285635557707</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3075,16 +3078,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E155">
-        <v>0.1995698789582308</v>
+        <v>0.2125259394093533</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3092,16 +3095,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E156">
-        <v>0.1995579104160833</v>
+        <v>0.2123627363614878</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3109,16 +3112,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E157">
-        <v>0.199092512067565</v>
+        <v>0.2119380650973227</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3126,16 +3129,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E158">
-        <v>0.1987964215009828</v>
+        <v>0.2111995196753924</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3143,16 +3146,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E159">
-        <v>0.1986712966761036</v>
+        <v>0.2102771812579088</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3163,13 +3166,13 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E160">
-        <v>0.1985804735991453</v>
+        <v>0.2060515567428585</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3177,16 +3180,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E161">
-        <v>0.1980108646984132</v>
+        <v>0.2058565002071058</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3194,16 +3197,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E162">
-        <v>0.1976856158216437</v>
+        <v>0.2057728318437523</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3211,16 +3214,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E163">
-        <v>0.1973954773151081</v>
+        <v>0.2057581705592309</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3228,16 +3231,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E164">
-        <v>0.196149817600457</v>
+        <v>0.2051708020111525</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3245,16 +3248,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E165">
-        <v>0.1955384722187605</v>
+        <v>0.2050806686617523</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3262,16 +3265,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
         <v>22</v>
       </c>
       <c r="E166">
-        <v>0.1944485601313104</v>
+        <v>0.2043136482280989</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3279,16 +3282,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E167">
-        <v>0.1928612160535738</v>
+        <v>0.2036044039045935</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3296,16 +3299,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E168">
-        <v>0.1921045418213917</v>
+        <v>0.2026792200087613</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3313,16 +3316,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E169">
-        <v>0.1911780548344917</v>
+        <v>0.2017930087836878</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3330,16 +3333,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E170">
-        <v>0.1875555434417424</v>
+        <v>0.2000874760376548</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3347,16 +3350,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E171">
-        <v>0.1870016864257704</v>
+        <v>0.2000790204926368</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3364,16 +3367,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E172">
-        <v>0.1869235202034224</v>
+        <v>0.1996143652945526</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3381,16 +3384,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E173">
-        <v>0.186763501561691</v>
+        <v>0.1995698789582308</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3398,16 +3401,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E174">
-        <v>0.1864108641192595</v>
+        <v>0.1995579104160833</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3418,13 +3421,13 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E175">
-        <v>0.1862432460587825</v>
+        <v>0.199092512067565</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3432,16 +3435,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E176">
-        <v>0.186032540764329</v>
+        <v>0.1987964215009828</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3449,16 +3452,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E177">
-        <v>0.1857434281891576</v>
+        <v>0.1986712966761036</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3466,16 +3469,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E178">
-        <v>0.1852673209641096</v>
+        <v>0.1985804735991453</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3483,16 +3486,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D179" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E179">
-        <v>0.1848130208286899</v>
+        <v>0.1980108646984132</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3506,10 +3509,10 @@
         <v>20</v>
       </c>
       <c r="D180" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E180">
-        <v>0.1832682474015807</v>
+        <v>0.1976856158216437</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3520,13 +3523,13 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E181">
-        <v>0.1824309149294918</v>
+        <v>0.1973954773151081</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3534,16 +3537,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E182">
-        <v>0.1812443197392369</v>
+        <v>0.196149817600457</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3551,16 +3554,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E183">
-        <v>0.1781492853011776</v>
+        <v>0.1955384722187605</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3568,16 +3571,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D184" t="s">
         <v>23</v>
       </c>
       <c r="E184">
-        <v>0.1781492853011776</v>
+        <v>0.1944485601313104</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3588,13 +3591,13 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E185">
-        <v>0.1761242476261048</v>
+        <v>0.1928612160535738</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3602,16 +3605,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E186">
-        <v>0.1760170077184356</v>
+        <v>0.1921045418213917</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3619,16 +3622,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E187">
-        <v>0.1757904219776518</v>
+        <v>0.1911780548344917</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3636,16 +3639,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E188">
-        <v>0.1756033489731439</v>
+        <v>0.1875555434417424</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3653,16 +3656,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E189">
-        <v>0.1751584337552263</v>
+        <v>0.1870016864257704</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3670,16 +3673,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D190" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E190">
-        <v>0.1751538373915087</v>
+        <v>0.1869235202034224</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3687,16 +3690,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E191">
-        <v>0.174951421454292</v>
+        <v>0.186763501561691</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3704,16 +3707,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E192">
-        <v>0.1747816294271141</v>
+        <v>0.1864108641192595</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3721,16 +3724,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E193">
-        <v>0.1741150866084465</v>
+        <v>0.1862432460587825</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3738,16 +3741,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E194">
-        <v>0.1698777291604412</v>
+        <v>0.186032540764329</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3755,16 +3758,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E195">
-        <v>0.168801345271701</v>
+        <v>0.1857434281891576</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3772,16 +3775,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D196" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E196">
-        <v>0.1685196516877409</v>
+        <v>0.1852673209641096</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3789,16 +3792,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D197" t="s">
         <v>22</v>
       </c>
       <c r="E197">
-        <v>0.1684728652056247</v>
+        <v>0.1848130208286899</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3806,16 +3809,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
         <v>22</v>
       </c>
       <c r="E198">
-        <v>0.1674860865810855</v>
+        <v>0.1832682474015807</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3823,16 +3826,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D199" t="s">
         <v>22</v>
       </c>
       <c r="E199">
-        <v>0.1673986475484407</v>
+        <v>0.1824309149294918</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3840,16 +3843,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D200" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E200">
-        <v>0.1670562459318302</v>
+        <v>0.1812443197392369</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3857,16 +3860,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E201">
-        <v>0.1659694137978289</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3874,16 +3877,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E202">
-        <v>0.162829752479949</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3891,16 +3894,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D203" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E203">
-        <v>0.161355631972629</v>
+        <v>0.1761242476261048</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3908,16 +3911,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D204" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E204">
-        <v>0.1601315264748963</v>
+        <v>0.1760170077184356</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3925,16 +3928,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E205">
-        <v>0.1583502979515888</v>
+        <v>0.1757904219776518</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3942,16 +3945,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E206">
-        <v>0.1580426531368402</v>
+        <v>0.1756646676156994</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3962,13 +3965,13 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E207">
-        <v>0.1577470800811197</v>
+        <v>0.1756033489731439</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3976,16 +3979,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D208" t="s">
         <v>22</v>
       </c>
       <c r="E208">
-        <v>0.1519324494450563</v>
+        <v>0.1751584337552263</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3996,13 +3999,13 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D209" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E209">
-        <v>0.1510504764011866</v>
+        <v>0.1751538373915087</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4010,16 +4013,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D210" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E210">
-        <v>0.146311190783296</v>
+        <v>0.174951421454292</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4030,13 +4033,13 @@
         <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E211">
-        <v>0.1454909847307927</v>
+        <v>0.1748257699262852</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4044,16 +4047,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D212" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E212">
-        <v>0.1404077903468095</v>
+        <v>0.1747816294271141</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4061,16 +4064,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D213" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E213">
-        <v>0.135071872636279</v>
+        <v>0.1741150866084465</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4078,16 +4081,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D214" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E214">
-        <v>0.1347536204054441</v>
+        <v>0.1711391540487659</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4095,16 +4098,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E215">
-        <v>0.1334767055058103</v>
+        <v>0.1698777291604412</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4112,16 +4115,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E216">
-        <v>0.1320310863074202</v>
+        <v>0.168801345271701</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4129,16 +4132,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D217" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E217">
-        <v>0.1317862140330771</v>
+        <v>0.1685196516877409</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4146,16 +4149,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C218" t="s">
         <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E218">
-        <v>0.1251275867012952</v>
+        <v>0.1684728652056247</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4163,16 +4166,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D219" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E219">
-        <v>0.1225396322113388</v>
+        <v>0.1674860865810855</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4180,16 +4183,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E220">
-        <v>0.1213417294048822</v>
+        <v>0.1673986475484407</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4197,16 +4200,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C221" t="s">
         <v>20</v>
       </c>
       <c r="D221" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E221">
-        <v>0.1177139972086027</v>
+        <v>0.1670562459318302</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4214,16 +4217,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
         <v>23</v>
       </c>
       <c r="E222">
-        <v>0.1135605170333236</v>
+        <v>0.1659694137978289</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4237,10 +4240,10 @@
         <v>17</v>
       </c>
       <c r="D223" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E223">
-        <v>0.1119314446843301</v>
+        <v>0.162829752479949</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4248,16 +4251,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E224">
-        <v>0.1115008180796557</v>
+        <v>0.161355631972629</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4265,16 +4268,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E225">
-        <v>0.1093193307582509</v>
+        <v>0.1601315264748963</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4282,16 +4285,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E226">
-        <v>0.1091974109084144</v>
+        <v>0.1583502979515888</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4299,16 +4302,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D227" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E227">
-        <v>0.1090398472158431</v>
+        <v>0.1580426531368402</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4316,16 +4319,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D228" t="s">
         <v>22</v>
       </c>
       <c r="E228">
-        <v>0.1056993013026516</v>
+        <v>0.1577470800811197</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4333,16 +4336,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
         <v>22</v>
       </c>
       <c r="E229">
-        <v>0.1045644596370874</v>
+        <v>0.155260403283229</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4350,16 +4353,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>18</v>
       </c>
       <c r="D230" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E230">
-        <v>0.09621265506705019</v>
+        <v>0.1519324494450563</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4367,16 +4370,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D231" t="s">
         <v>22</v>
       </c>
       <c r="E231">
-        <v>0.09492224763498669</v>
+        <v>0.1510504764011866</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4384,16 +4387,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D232" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E232">
-        <v>0.09423691412476277</v>
+        <v>0.1496228593272713</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4401,16 +4404,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E233">
-        <v>0.09226170879253436</v>
+        <v>0.146311190783296</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4418,16 +4421,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D234" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E234">
-        <v>0.09063557684943224</v>
+        <v>0.1454909847307927</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4435,16 +4438,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D235" t="s">
         <v>22</v>
       </c>
       <c r="E235">
-        <v>0.08261877502460716</v>
+        <v>0.1448482572033425</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4452,16 +4455,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E236">
-        <v>0.07153920766409173</v>
+        <v>0.1404077903468095</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4472,13 +4475,13 @@
         <v>12</v>
       </c>
       <c r="C237" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D237" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E237">
-        <v>0.0691228104408913</v>
+        <v>0.1370887850172636</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4486,16 +4489,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E238">
-        <v>0.06799623033138535</v>
+        <v>0.135071872636279</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4503,16 +4506,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D239" t="s">
         <v>22</v>
       </c>
       <c r="E239">
-        <v>0.03032263527486778</v>
+        <v>0.1347536204054441</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4520,16 +4523,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D240" t="s">
         <v>23</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.1334767055058103</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4537,16 +4540,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.1320310863074202</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4554,16 +4557,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D242" t="s">
         <v>23</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.1317862140330771</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4571,16 +4574,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.1251275867012952</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4591,13 +4594,13 @@
         <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D244" t="s">
         <v>23</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>0.1225396322113388</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4605,7 +4608,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
         <v>15</v>
@@ -4614,7 +4617,7 @@
         <v>23</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.1213417294048822</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4622,16 +4625,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D246" t="s">
         <v>23</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.1177139972086027</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4639,16 +4642,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D247" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.1144323960926429</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4656,16 +4659,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.1135605170333236</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4673,16 +4676,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D249" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.1131372162652551</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4690,16 +4693,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D250" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.1119314446843301</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4707,16 +4710,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D251" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>0.1115008180796557</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4724,16 +4727,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
         <v>23</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>0.1093193307582509</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4741,16 +4744,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D253" t="s">
         <v>23</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.1091974109084144</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4758,16 +4761,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>0.1090398472158431</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4775,16 +4778,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D255" t="s">
         <v>23</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.1060048195045208</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4792,16 +4795,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D256" t="s">
         <v>23</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.1056993013026516</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4809,15 +4812,559 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257">
+        <v>0.1045644596370874</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258">
+        <v>0.09621265506705019</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" t="s">
+        <v>23</v>
+      </c>
+      <c r="E259">
+        <v>0.09492224763498669</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
         <v>9</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C260" t="s">
+        <v>20</v>
+      </c>
+      <c r="D260" t="s">
+        <v>22</v>
+      </c>
+      <c r="E260">
+        <v>0.09423691412476277</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" t="s">
+        <v>23</v>
+      </c>
+      <c r="E261">
+        <v>0.09226170879253436</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
         <v>13</v>
       </c>
-      <c r="D257" t="s">
-        <v>23</v>
-      </c>
-      <c r="E257">
+      <c r="C262" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" t="s">
+        <v>23</v>
+      </c>
+      <c r="E262">
+        <v>0.09063557684943224</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" t="s">
+        <v>23</v>
+      </c>
+      <c r="E263">
+        <v>0.08261877502460716</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" t="s">
+        <v>23</v>
+      </c>
+      <c r="E264">
+        <v>0.07469164773564443</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>14</v>
+      </c>
+      <c r="D265" t="s">
+        <v>23</v>
+      </c>
+      <c r="E265">
+        <v>0.07153920766409173</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" t="s">
+        <v>23</v>
+      </c>
+      <c r="E266">
+        <v>0.0691228104408913</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>20</v>
+      </c>
+      <c r="D267" t="s">
+        <v>23</v>
+      </c>
+      <c r="E267">
+        <v>0.06799623033138535</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" t="s">
+        <v>23</v>
+      </c>
+      <c r="E268">
+        <v>0.03032263527486778</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" t="s">
+        <v>24</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" t="s">
+        <v>16</v>
+      </c>
+      <c r="D272" t="s">
+        <v>24</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" t="s">
+        <v>24</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" t="s">
+        <v>24</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D275" t="s">
+        <v>24</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" t="s">
+        <v>24</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" t="s">
+        <v>24</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" t="s">
+        <v>24</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" t="s">
+        <v>24</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" t="s">
+        <v>24</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" t="s">
+        <v>24</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" t="s">
+        <v>24</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" t="s">
+        <v>24</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" t="s">
+        <v>24</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" t="s">
+        <v>24</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" t="s">
+        <v>24</v>
+      </c>
+      <c r="E289">
         <v>0</v>
       </c>
     </row>
